--- a/htdocs/App/Controllers/Traspasos/IB4042CP.xlsx
+++ b/htdocs/App/Controllers/Traspasos/IB4042CP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>TRANSFERENCIAS PARTICULARES</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>04-01-2018</t>
+    <t>08-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Silvia</t>
+    <t>Cristina</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2018-01-04</t>
+    <t>2018-02-08</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t>JOSE ANTONIO</t>
+    <t>MUSTAPHA</t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -97,10 +97,13 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>MUSTAPHA</t>
+    <t>Mohamed Bouloua</t>
   </si>
   <si>
     <t>Pago y Gest. IVTM………………</t>
+  </si>
+  <si>
+    <t>no disponible</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>1707</v>
+        <v>634732636</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>634732636</v>
+        <v>2215</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
@@ -1858,7 +1861,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
